--- a/andmestikud/Haigused.xlsx
+++ b/andmestikud/Haigused.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rauno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rauno\Desktop\andmetenika_streamlitrakendus\andmestikud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1926422D-16EC-43FF-B5E6-719AA5908227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC3FD68-B9A5-43D1-9551-8CDD51231905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30450" yWindow="1650" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>B-hepatiit</t>
-  </si>
-  <si>
-    <t>Haemophilus influenzae nakkus</t>
   </si>
   <si>
     <t>Tuberkuloos</t>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>Võru maakond</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:M397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M397"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,13 +522,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -536,7 +536,7 @@
         <v>2004</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>2004</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>2004</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>2004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>2004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>2004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>2004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>2004</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>2004</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>2004</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>2004</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>2004</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>2004</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>2004</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>2004</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>2004</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>2004</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>2005</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>2005</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>2005</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>2005</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>2005</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>2005</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>2005</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>2005</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>2005</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>2005</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>2005</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>2005</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>2005</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>2005</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>2005</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>2005</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>2005</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>2005</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>2006</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>2006</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>2006</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>2006</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>2006</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>2006</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>2006</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>2006</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>2006</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>2006</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>2006</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>2006</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -2504,7 +2504,7 @@
         <v>2006</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>2006</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>2006</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>2006</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>2006</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>2006</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>2007</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>2007</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>2007</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>2007</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>2007</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>2007</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -2996,7 +2996,7 @@
         <v>2007</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>2007</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>2007</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>2007</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>2007</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>2007</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>2007</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="2">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>2007</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>2007</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70" s="2">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>2007</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" s="2">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>2007</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" s="2">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>2007</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" s="2">
         <v>0</v>
@@ -3488,7 +3488,7 @@
         <v>2008</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>2008</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>2008</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>2008</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="2">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>2008</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>2008</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>2008</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>2008</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>2008</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>2008</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>2008</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>2008</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>2008</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>2008</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>2008</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>2008</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>2008</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>2008</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>2009</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>2009</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93" s="2">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>2009</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>2009</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" s="2">
         <v>0</v>
@@ -4390,7 +4390,7 @@
         <v>2009</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>2009</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>2009</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>2009</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>2009</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>2009</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>2009</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4677,7 +4677,7 @@
         <v>2009</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>2009</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>2009</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4800,7 +4800,7 @@
         <v>2009</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -4841,7 +4841,7 @@
         <v>2009</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>2009</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>2009</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>2010</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5005,7 +5005,7 @@
         <v>2010</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>2010</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>2010</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5128,7 +5128,7 @@
         <v>2010</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>2010</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>2010</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>2010</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>2010</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>2010</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>2010</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5415,7 +5415,7 @@
         <v>2010</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5456,7 +5456,7 @@
         <v>2010</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>2010</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>2010</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>2010</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5620,7 +5620,7 @@
         <v>2010</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5661,7 +5661,7 @@
         <v>2010</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>2011</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5743,7 +5743,7 @@
         <v>2011</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>2011</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>2011</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5866,7 +5866,7 @@
         <v>2011</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5907,7 +5907,7 @@
         <v>2011</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5948,7 +5948,7 @@
         <v>2011</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>2011</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -6030,7 +6030,7 @@
         <v>2011</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>2011</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -6112,7 +6112,7 @@
         <v>2011</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>2011</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -6194,7 +6194,7 @@
         <v>2011</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>2011</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>2011</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6317,7 +6317,7 @@
         <v>2011</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6358,7 +6358,7 @@
         <v>2011</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>2011</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>2012</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         <v>2012</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6522,7 +6522,7 @@
         <v>2012</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6563,7 +6563,7 @@
         <v>2012</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>2012</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6645,7 +6645,7 @@
         <v>2012</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>2012</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         <v>2012</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>2012</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6809,7 +6809,7 @@
         <v>2012</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>2012</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>2012</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>2012</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6973,7 +6973,7 @@
         <v>2012</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -7014,7 +7014,7 @@
         <v>2012</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>2012</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>2012</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>2012</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -7178,7 +7178,7 @@
         <v>2013</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>2013</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -7260,7 +7260,7 @@
         <v>2013</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -7301,7 +7301,7 @@
         <v>2013</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -7342,7 +7342,7 @@
         <v>2013</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>2013</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -7424,7 +7424,7 @@
         <v>2013</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -7465,7 +7465,7 @@
         <v>2013</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>2013</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -7547,7 +7547,7 @@
         <v>2013</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>2013</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -7629,7 +7629,7 @@
         <v>2013</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>2013</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -7711,7 +7711,7 @@
         <v>2013</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -7752,7 +7752,7 @@
         <v>2013</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>2013</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>2013</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7875,7 +7875,7 @@
         <v>2013</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>2014</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7957,7 +7957,7 @@
         <v>2014</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7998,7 +7998,7 @@
         <v>2014</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -8039,7 +8039,7 @@
         <v>2014</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -8080,7 +8080,7 @@
         <v>2014</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>2014</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -8162,7 +8162,7 @@
         <v>2014</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -8203,7 +8203,7 @@
         <v>2014</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -8244,7 +8244,7 @@
         <v>2014</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>2014</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -8326,7 +8326,7 @@
         <v>2014</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -8367,7 +8367,7 @@
         <v>2014</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>2014</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>2014</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -8490,7 +8490,7 @@
         <v>2014</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>2014</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>2014</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>2014</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -8654,7 +8654,7 @@
         <v>2015</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>2015</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -8736,7 +8736,7 @@
         <v>2015</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>2015</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -8818,7 +8818,7 @@
         <v>2015</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -8859,7 +8859,7 @@
         <v>2015</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>2015</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>2015</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>2015</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>2015</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>2015</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>2015</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -9146,7 +9146,7 @@
         <v>2015</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>2015</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -9228,7 +9228,7 @@
         <v>2015</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -9269,7 +9269,7 @@
         <v>2015</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -9310,7 +9310,7 @@
         <v>2015</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -9351,7 +9351,7 @@
         <v>2015</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -9392,7 +9392,7 @@
         <v>2016</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>2016</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>2016</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>2016</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C221" s="2">
         <v>0</v>
@@ -9556,7 +9556,7 @@
         <v>2016</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C222" s="2">
         <v>0</v>
@@ -9597,7 +9597,7 @@
         <v>2016</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C223" s="2">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>2016</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C224" s="2">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>2016</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C225" s="2">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>2016</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C226" s="2">
         <v>0</v>
@@ -9761,7 +9761,7 @@
         <v>2016</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C227" s="2">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>2016</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C228" s="2">
         <v>0</v>
@@ -9843,7 +9843,7 @@
         <v>2016</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C229" s="2">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>2016</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C230" s="2">
         <v>0</v>
@@ -9925,7 +9925,7 @@
         <v>2016</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C231" s="2">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>2016</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
@@ -10007,7 +10007,7 @@
         <v>2016</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>2016</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C234" s="2">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>2016</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C235" s="2">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>2017</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C236" s="2">
         <v>0</v>
@@ -10171,7 +10171,7 @@
         <v>2017</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C237" s="2">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>2017</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C238" s="2">
         <v>0</v>
@@ -10253,7 +10253,7 @@
         <v>2017</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C239" s="2">
         <v>0</v>
@@ -10294,7 +10294,7 @@
         <v>2017</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C240" s="2">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>2017</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C241" s="2">
         <v>0</v>
@@ -10376,7 +10376,7 @@
         <v>2017</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C242" s="2">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>2017</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C243" s="2">
         <v>0</v>
@@ -10458,7 +10458,7 @@
         <v>2017</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C244" s="2">
         <v>0</v>
@@ -10499,7 +10499,7 @@
         <v>2017</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
@@ -10540,7 +10540,7 @@
         <v>2017</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C246" s="2">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>2017</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C247" s="2">
         <v>0</v>
@@ -10622,7 +10622,7 @@
         <v>2017</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C248" s="2">
         <v>0</v>
@@ -10663,7 +10663,7 @@
         <v>2017</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C249" s="2">
         <v>0</v>
@@ -10704,7 +10704,7 @@
         <v>2017</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C250" s="2">
         <v>0</v>
@@ -10745,7 +10745,7 @@
         <v>2017</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C251" s="2">
         <v>0</v>
@@ -10786,7 +10786,7 @@
         <v>2017</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C252" s="2">
         <v>0</v>
@@ -10827,7 +10827,7 @@
         <v>2017</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C253" s="2">
         <v>0</v>
@@ -10868,7 +10868,7 @@
         <v>2018</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C254" s="2">
         <v>0</v>
@@ -10909,7 +10909,7 @@
         <v>2018</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C255" s="2">
         <v>0</v>
@@ -10950,7 +10950,7 @@
         <v>2018</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C256" s="2">
         <v>0</v>
@@ -10991,7 +10991,7 @@
         <v>2018</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C257" s="2">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>2018</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C258" s="2">
         <v>0</v>
@@ -11073,7 +11073,7 @@
         <v>2018</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C259" s="2">
         <v>0</v>
@@ -11114,7 +11114,7 @@
         <v>2018</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C260" s="2">
         <v>0</v>
@@ -11155,7 +11155,7 @@
         <v>2018</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C261" s="2">
         <v>0</v>
@@ -11196,7 +11196,7 @@
         <v>2018</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C262" s="2">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>2018</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C263" s="2">
         <v>0</v>
@@ -11278,7 +11278,7 @@
         <v>2018</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C264" s="2">
         <v>0</v>
@@ -11319,7 +11319,7 @@
         <v>2018</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C265" s="2">
         <v>0</v>
@@ -11360,7 +11360,7 @@
         <v>2018</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C266" s="2">
         <v>0</v>
@@ -11401,7 +11401,7 @@
         <v>2018</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C267" s="2">
         <v>0</v>
@@ -11442,7 +11442,7 @@
         <v>2018</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C268" s="2">
         <v>0</v>
@@ -11483,7 +11483,7 @@
         <v>2018</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C269" s="2">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>2018</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C270" s="2">
         <v>0</v>
@@ -11565,7 +11565,7 @@
         <v>2018</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C271" s="2">
         <v>0</v>
@@ -11606,7 +11606,7 @@
         <v>2019</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C272" s="2">
         <v>0</v>
@@ -11647,7 +11647,7 @@
         <v>2019</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C273" s="2">
         <v>0</v>
@@ -11688,7 +11688,7 @@
         <v>2019</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C274" s="2">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>2019</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C275" s="2">
         <v>0</v>
@@ -11770,7 +11770,7 @@
         <v>2019</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C276" s="2">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>2019</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C277" s="2">
         <v>0</v>
@@ -11852,7 +11852,7 @@
         <v>2019</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C278" s="2">
         <v>0</v>
@@ -11893,7 +11893,7 @@
         <v>2019</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C279" s="2">
         <v>0</v>
@@ -11934,7 +11934,7 @@
         <v>2019</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C280" s="2">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>2019</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C281" s="2">
         <v>0</v>
@@ -12016,7 +12016,7 @@
         <v>2019</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C282" s="2">
         <v>0</v>
@@ -12057,7 +12057,7 @@
         <v>2019</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C283" s="2">
         <v>0</v>
@@ -12098,7 +12098,7 @@
         <v>2019</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C284" s="2">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>2019</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C285" s="2">
         <v>0</v>
@@ -12180,7 +12180,7 @@
         <v>2019</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C286" s="2">
         <v>0</v>
@@ -12221,7 +12221,7 @@
         <v>2019</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C287" s="2">
         <v>0</v>
@@ -12262,7 +12262,7 @@
         <v>2019</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C288" s="2">
         <v>0</v>
@@ -12303,7 +12303,7 @@
         <v>2019</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C289" s="2">
         <v>0</v>
@@ -12344,7 +12344,7 @@
         <v>2020</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C290" s="2">
         <v>0</v>
@@ -12385,7 +12385,7 @@
         <v>2020</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C291" s="2">
         <v>0</v>
@@ -12426,7 +12426,7 @@
         <v>2020</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C292" s="2">
         <v>0</v>
@@ -12467,7 +12467,7 @@
         <v>2020</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C293" s="2">
         <v>0</v>
@@ -12508,7 +12508,7 @@
         <v>2020</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C294" s="2">
         <v>0</v>
@@ -12549,7 +12549,7 @@
         <v>2020</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C295" s="2">
         <v>0</v>
@@ -12590,7 +12590,7 @@
         <v>2020</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C296" s="2">
         <v>0</v>
@@ -12631,7 +12631,7 @@
         <v>2020</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C297" s="2">
         <v>0</v>
@@ -12672,7 +12672,7 @@
         <v>2020</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C298" s="2">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>2020</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C299" s="2">
         <v>0</v>
@@ -12754,7 +12754,7 @@
         <v>2020</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C300" s="2">
         <v>0</v>
@@ -12795,7 +12795,7 @@
         <v>2020</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C301" s="2">
         <v>0</v>
@@ -12836,7 +12836,7 @@
         <v>2020</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C302" s="2">
         <v>0</v>
@@ -12877,7 +12877,7 @@
         <v>2020</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C303" s="2">
         <v>0</v>
@@ -12918,7 +12918,7 @@
         <v>2020</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C304" s="2">
         <v>0</v>
@@ -12959,7 +12959,7 @@
         <v>2020</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C305" s="2">
         <v>0</v>
@@ -13000,7 +13000,7 @@
         <v>2020</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C306" s="2">
         <v>0</v>
@@ -13041,7 +13041,7 @@
         <v>2020</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C307" s="2">
         <v>0</v>
@@ -13082,7 +13082,7 @@
         <v>2021</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C308" s="2">
         <v>0</v>
@@ -13123,7 +13123,7 @@
         <v>2021</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C309" s="5">
         <v>0</v>
@@ -13164,7 +13164,7 @@
         <v>2021</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C310" s="5">
         <v>0</v>
@@ -13205,7 +13205,7 @@
         <v>2021</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C311" s="2">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>2021</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C312" s="5">
         <v>0</v>
@@ -13287,7 +13287,7 @@
         <v>2021</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C313" s="2">
         <v>0</v>
@@ -13328,7 +13328,7 @@
         <v>2021</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C314" s="2">
         <v>0</v>
@@ -13369,7 +13369,7 @@
         <v>2021</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C315" s="5">
         <v>0</v>
@@ -13410,7 +13410,7 @@
         <v>2021</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C316" s="5">
         <v>0</v>
@@ -13451,7 +13451,7 @@
         <v>2021</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C317" s="2">
         <v>0</v>
@@ -13492,7 +13492,7 @@
         <v>2021</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C318" s="5">
         <v>0</v>
@@ -13533,7 +13533,7 @@
         <v>2021</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C319" s="5">
         <v>0</v>
@@ -13574,7 +13574,7 @@
         <v>2021</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C320" s="2">
         <v>0</v>
@@ -13615,7 +13615,7 @@
         <v>2021</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C321" s="5">
         <v>0</v>
@@ -13656,7 +13656,7 @@
         <v>2021</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C322" s="5">
         <v>0</v>
@@ -13697,7 +13697,7 @@
         <v>2021</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C323" s="2">
         <v>0</v>
@@ -13738,7 +13738,7 @@
         <v>2021</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C324" s="5">
         <v>0</v>
@@ -13779,7 +13779,7 @@
         <v>2021</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C325" s="5">
         <v>0</v>
@@ -13820,7 +13820,7 @@
         <v>2022</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C326" s="2">
         <v>0</v>
@@ -13861,7 +13861,7 @@
         <v>2022</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C327" s="5">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>2022</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C328" s="5">
         <v>0</v>
@@ -13943,7 +13943,7 @@
         <v>2022</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C329" s="2">
         <v>0</v>
@@ -13984,7 +13984,7 @@
         <v>2022</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C330" s="5">
         <v>0</v>
@@ -14025,7 +14025,7 @@
         <v>2022</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C331" s="2">
         <v>0</v>
@@ -14066,7 +14066,7 @@
         <v>2022</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C332" s="2">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>2022</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C333" s="5">
         <v>0</v>
@@ -14148,7 +14148,7 @@
         <v>2022</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C334" s="5">
         <v>0</v>
@@ -14189,7 +14189,7 @@
         <v>2022</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C335" s="2">
         <v>0</v>
@@ -14230,7 +14230,7 @@
         <v>2022</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C336" s="5">
         <v>0</v>
@@ -14271,7 +14271,7 @@
         <v>2022</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C337" s="5">
         <v>0</v>
@@ -14312,7 +14312,7 @@
         <v>2022</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C338" s="2">
         <v>0</v>
@@ -14353,7 +14353,7 @@
         <v>2022</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C339" s="5">
         <v>0</v>
@@ -14394,7 +14394,7 @@
         <v>2022</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C340" s="5">
         <v>0</v>
@@ -14435,7 +14435,7 @@
         <v>2022</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C341" s="2">
         <v>0</v>
@@ -14476,7 +14476,7 @@
         <v>2022</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C342" s="5">
         <v>0</v>
@@ -14517,7 +14517,7 @@
         <v>2022</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C343" s="5">
         <v>0</v>
@@ -14558,7 +14558,7 @@
         <v>2023</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C344" s="2">
         <v>0</v>
@@ -14599,7 +14599,7 @@
         <v>2023</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C345" s="5">
         <v>0</v>
@@ -14640,7 +14640,7 @@
         <v>2023</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C346" s="2">
         <v>0</v>
@@ -14681,7 +14681,7 @@
         <v>2023</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C347" s="5">
         <v>0</v>
@@ -14722,7 +14722,7 @@
         <v>2023</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C348" s="2">
         <v>0</v>
@@ -14763,7 +14763,7 @@
         <v>2023</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C349" s="2">
         <v>0</v>
@@ -14804,7 +14804,7 @@
         <v>2023</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C350" s="2">
         <v>0</v>
@@ -14845,7 +14845,7 @@
         <v>2023</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C351" s="5">
         <v>0</v>
@@ -14886,7 +14886,7 @@
         <v>2023</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C352" s="2">
         <v>0</v>
@@ -14927,7 +14927,7 @@
         <v>2023</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C353" s="5">
         <v>0</v>
@@ -14968,7 +14968,7 @@
         <v>2023</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C354" s="2">
         <v>0</v>
@@ -15009,7 +15009,7 @@
         <v>2023</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C355" s="5">
         <v>0</v>
@@ -15050,7 +15050,7 @@
         <v>2023</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C356" s="2">
         <v>0</v>
@@ -15091,7 +15091,7 @@
         <v>2023</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C357" s="5">
         <v>0</v>
@@ -15132,7 +15132,7 @@
         <v>2023</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C358" s="2">
         <v>0</v>
@@ -15173,7 +15173,7 @@
         <v>2023</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C359" s="5">
         <v>0</v>
@@ -15214,7 +15214,7 @@
         <v>2023</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C360" s="2">
         <v>0</v>
@@ -15255,7 +15255,7 @@
         <v>2023</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C361" s="5">
         <v>0</v>
@@ -15296,7 +15296,7 @@
         <v>2024</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C362" s="2">
         <v>0</v>
@@ -15337,7 +15337,7 @@
         <v>2024</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C363" s="2">
         <v>0</v>
@@ -15378,7 +15378,7 @@
         <v>2024</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C364" s="2">
         <v>0</v>
@@ -15419,7 +15419,7 @@
         <v>2024</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C365" s="2">
         <v>0</v>
@@ -15460,7 +15460,7 @@
         <v>2024</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C366" s="2">
         <v>0</v>
@@ -15501,7 +15501,7 @@
         <v>2024</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C367" s="2">
         <v>0</v>
@@ -15542,7 +15542,7 @@
         <v>2024</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C368" s="2">
         <v>0</v>
@@ -15583,7 +15583,7 @@
         <v>2024</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C369" s="2">
         <v>0</v>
@@ -15624,7 +15624,7 @@
         <v>2024</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C370" s="2">
         <v>0</v>
@@ -15665,7 +15665,7 @@
         <v>2024</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C371" s="2">
         <v>0</v>
@@ -15706,7 +15706,7 @@
         <v>2024</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C372" s="2">
         <v>0</v>
@@ -15747,7 +15747,7 @@
         <v>2024</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C373" s="2">
         <v>0</v>
@@ -15788,7 +15788,7 @@
         <v>2024</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C374" s="2">
         <v>0</v>
@@ -15829,7 +15829,7 @@
         <v>2024</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C375" s="2">
         <v>0</v>
@@ -15870,7 +15870,7 @@
         <v>2024</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C376" s="2">
         <v>0</v>
@@ -15911,7 +15911,7 @@
         <v>2024</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C377" s="2">
         <v>0</v>
@@ -15952,7 +15952,7 @@
         <v>2024</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C378" s="2">
         <v>0</v>
@@ -15993,7 +15993,7 @@
         <v>2024</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C379" s="2">
         <v>0</v>
@@ -16034,7 +16034,7 @@
         <v>2025</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C380" s="2">
         <v>0</v>
@@ -16077,7 +16077,7 @@
         <v>2025</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C381" s="2">
         <v>0</v>
@@ -16120,7 +16120,7 @@
         <v>2025</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C382" s="2">
         <v>0</v>
@@ -16163,7 +16163,7 @@
         <v>2025</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C383" s="2">
         <v>0</v>
@@ -16206,7 +16206,7 @@
         <v>2025</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C384" s="2">
         <v>0</v>
@@ -16249,7 +16249,7 @@
         <v>2025</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C385" s="2">
         <v>0</v>
@@ -16290,7 +16290,7 @@
         <v>2025</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C386" s="2">
         <v>0</v>
@@ -16333,7 +16333,7 @@
         <v>2025</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C387" s="2">
         <v>0</v>
@@ -16376,7 +16376,7 @@
         <v>2025</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C388" s="2">
         <v>0</v>
@@ -16419,7 +16419,7 @@
         <v>2025</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C389" s="2">
         <v>0</v>
@@ -16462,7 +16462,7 @@
         <v>2025</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C390" s="2">
         <v>0</v>
@@ -16505,7 +16505,7 @@
         <v>2025</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C391" s="2">
         <v>0</v>
@@ -16548,7 +16548,7 @@
         <v>2025</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C392" s="2">
         <v>0</v>
@@ -16591,7 +16591,7 @@
         <v>2025</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C393" s="2">
         <v>0</v>
@@ -16634,7 +16634,7 @@
         <v>2025</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C394" s="2">
         <v>0</v>
@@ -16677,7 +16677,7 @@
         <v>2025</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C395" s="2">
         <v>0</v>
@@ -16720,7 +16720,7 @@
         <v>2025</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C396" s="2">
         <v>0</v>
@@ -16763,7 +16763,7 @@
         <v>2025</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C397" s="2">
         <v>0</v>
